--- a/2-Reqs/ConfigurationItemList.xlsx
+++ b/2-Reqs/ConfigurationItemList.xlsx
@@ -163,13 +163,7 @@
     <t>https://github.com/sohip-a/Foodies/blob/main/2-Reqs/Risk%20management%20log.xlsx</t>
   </si>
   <si>
-    <t>Foodie-RTM.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">The file where the Requierment Traceability matrix is written </t>
-  </si>
-  <si>
-    <t>https://github.com/sohip-a/Foodies/blob/main/2-Reqs/Foodie-RTM.xlsx</t>
   </si>
   <si>
     <t>CI_010</t>
@@ -186,12 +180,18 @@
   <si>
     <t>PMP.docx</t>
   </si>
+  <si>
+    <t>RTM.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/sohip-a/Foodies/blob/main/1-%20PM/RTM.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -235,6 +235,12 @@
       <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -356,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -376,11 +382,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -406,6 +407,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -626,8 +635,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -642,17 +651,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -724,7 +733,7 @@
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -736,7 +745,7 @@
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -768,9 +777,9 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -782,7 +791,7 @@
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -814,9 +823,9 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -828,7 +837,7 @@
       <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -860,9 +869,9 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -874,7 +883,7 @@
       <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -906,9 +915,9 @@
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -920,7 +929,7 @@
       <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -966,7 +975,7 @@
       <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -1003,7 +1012,7 @@
       <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1012,7 +1021,7 @@
       <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -1046,22 +1055,22 @@
       <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -1092,22 +1101,22 @@
       <c r="B11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -1133,27 +1142,27 @@
     </row>
     <row r="12" spans="1:26" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>50</v>
+      <c r="G12" s="13" t="s">
+        <v>55</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -28858,5 +28867,6 @@
     <hyperlink ref="G12" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/2-Reqs/ConfigurationItemList.xlsx
+++ b/2-Reqs/ConfigurationItemList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
   <si>
     <t>CONFIGURATION ITEM LIST OF FOODIES WEB APP</t>
   </si>
@@ -111,9 +111,6 @@
     <t>https://github.com/sohip-a/Foodies/blob/main/2-Reqs/CRS.xlsx</t>
   </si>
   <si>
-    <t>https://github.com/sohip-a/Foodies/blob/main/2-Reqs/SIQ.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Foodies/1-PM/</t>
   </si>
@@ -169,9 +166,6 @@
     <t>CI_010</t>
   </si>
   <si>
-    <t>SIQ.xlsx</t>
-  </si>
-  <si>
     <t>CRS.xlsx</t>
   </si>
   <si>
@@ -185,6 +179,25 @@
   </si>
   <si>
     <t>https://github.com/sohip-a/Foodies/blob/main/1-%20PM/RTM.xlsx</t>
+  </si>
+  <si>
+    <t>SIQ18-02-2023.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Foodies/2-Reqs/SIQ</t>
+  </si>
+  <si>
+    <t>https://github.com/sohip-a/Foodies/blob/main/2-Reqs/SIQ/SIQ18-02-2023.xlsx</t>
+  </si>
+  <si>
+    <t>CI_011</t>
+  </si>
+  <si>
+    <t>SIQ22-02-2023.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/sohip-a/Foodies/blob/main/2-Reqs/SIQ/SIQ22-02-2023.xlsx</t>
   </si>
 </sst>
 </file>
@@ -409,14 +422,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -635,8 +648,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -651,17 +664,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -777,7 +790,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>29</v>
@@ -823,10 +836,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
@@ -838,7 +851,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>15</v>
@@ -869,10 +882,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>21</v>
@@ -884,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>15</v>
@@ -915,10 +928,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>23</v>
@@ -930,7 +943,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>15</v>
@@ -964,10 +977,10 @@
         <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>26</v>
@@ -976,7 +989,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>15</v>
@@ -1004,16 +1017,16 @@
     </row>
     <row r="9" spans="1:26" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>26</v>
@@ -1022,7 +1035,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>15</v>
@@ -1050,16 +1063,16 @@
     </row>
     <row r="10" spans="1:26" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="C10" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>13</v>
@@ -1068,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>15</v>
@@ -1096,16 +1109,16 @@
     </row>
     <row r="11" spans="1:26" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>13</v>
@@ -1114,7 +1127,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>15</v>
@@ -1142,16 +1155,16 @@
     </row>
     <row r="12" spans="1:26" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>54</v>
+      <c r="B12" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>13</v>
@@ -1160,7 +1173,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>15</v>
@@ -1186,33 +1199,51 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+    <row r="13" spans="1:26" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -28865,8 +28896,9 @@
     <hyperlink ref="G10" r:id="rId8"/>
     <hyperlink ref="G11" r:id="rId9"/>
     <hyperlink ref="G12" r:id="rId10"/>
+    <hyperlink ref="G13" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/2-Reqs/ConfigurationItemList.xlsx
+++ b/2-Reqs/ConfigurationItemList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>CONFIGURATION ITEM LIST OF FOODIES WEB APP</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>https://github.com/sohip-a/Foodies/blob/main/2-Reqs/SIQ/SIQ22-02-2023.xlsx</t>
+  </si>
+  <si>
+    <t>V 1.1</t>
   </si>
 </sst>
 </file>
@@ -648,8 +651,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>59</v>

--- a/2-Reqs/ConfigurationItemList.xlsx
+++ b/2-Reqs/ConfigurationItemList.xlsx
@@ -200,7 +200,7 @@
     <t>https://github.com/sohip-a/Foodies/blob/main/2-Reqs/SIQ/SIQ22-02-2023.xlsx</t>
   </si>
   <si>
-    <t>V 1.1</t>
+    <t>V 1.2</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/2-Reqs/ConfigurationItemList.xlsx
+++ b/2-Reqs/ConfigurationItemList.xlsx
@@ -178,9 +178,6 @@
     <t>RTM.xlsx</t>
   </si>
   <si>
-    <t>https://github.com/sohip-a/Foodies/blob/main/1-%20PM/RTM.xlsx</t>
-  </si>
-  <si>
     <t>SIQ18-02-2023.xlsx</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>V 1.2</t>
+  </si>
+  <si>
+    <t>https://github.com/sohip-a/Foodies/blob/main/2-Reqs/RTM.xlsx</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -839,10 +839,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
@@ -854,7 +854,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>15</v>
@@ -1164,7 +1164,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>47</v>
@@ -1176,7 +1176,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>15</v>
@@ -1204,13 +1204,13 @@
     </row>
     <row r="13" spans="1:26" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="C13" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>19</v>
@@ -1219,10 +1219,10 @@
         <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>15</v>

--- a/2-Reqs/ConfigurationItemList.xlsx
+++ b/2-Reqs/ConfigurationItemList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
   <si>
     <t>CONFIGURATION ITEM LIST OF FOODIES WEB APP</t>
   </si>
@@ -202,6 +202,36 @@
   <si>
     <t>https://github.com/sohip-a/Foodies/blob/main/2-Reqs/RTM.xlsx</t>
   </si>
+  <si>
+    <t>CI_12</t>
+  </si>
+  <si>
+    <t>Test case report</t>
+  </si>
+  <si>
+    <t>CI_13</t>
+  </si>
+  <si>
+    <t>Bug report</t>
+  </si>
+  <si>
+    <t>Foodies/5-Testing/Test Case Report.xlsx</t>
+  </si>
+  <si>
+    <t>Foodies/5-Testing/Bug Report.xlsx</t>
+  </si>
+  <si>
+    <t>The file where the Test cases and their summary report</t>
+  </si>
+  <si>
+    <t>The file where the Bug report is written</t>
+  </si>
+  <si>
+    <t>https://github.com/sohip-a/Foodies/blob/main/5-Testing/Test%20Case%20Report.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/sohip-a/Foodies/blob/main/5-Testing/Bug%20Report.xlsx</t>
+  </si>
 </sst>
 </file>
 
@@ -285,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -373,12 +403,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -433,6 +487,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -649,10 +721,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1203,31 +1275,31 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="J13" s="5"/>
@@ -1248,16 +1320,34 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+    <row r="14" spans="1:26" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1276,16 +1366,34 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+    <row r="15" spans="1:26" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -28856,34 +28964,6 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
-    <row r="1000" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1"/>
-      <c r="L1000" s="1"/>
-      <c r="M1000" s="1"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-      <c r="R1000" s="1"/>
-      <c r="S1000" s="1"/>
-      <c r="T1000" s="1"/>
-      <c r="U1000" s="1"/>
-      <c r="V1000" s="1"/>
-      <c r="W1000" s="1"/>
-      <c r="X1000" s="1"/>
-      <c r="Y1000" s="1"/>
-      <c r="Z1000" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
@@ -28900,8 +28980,10 @@
     <hyperlink ref="G11" r:id="rId9"/>
     <hyperlink ref="G12" r:id="rId10"/>
     <hyperlink ref="G13" r:id="rId11"/>
+    <hyperlink ref="G14" r:id="rId12"/>
+    <hyperlink ref="G15" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>